--- a/n = 10, chain reward = 3000, first method/BestAnswer4 - BEST.xlsx
+++ b/n = 10, chain reward = 3000, first method/BestAnswer4 - BEST.xlsx
@@ -15,8 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 5" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 6" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cycle 1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cycle 1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,89 +436,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>31100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Pair</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>PatientName</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DonorName</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Compatibility</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Elliot Mcphatter</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sarah Tamura</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mary Kissler</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Jose Harris</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5000</v>
+        <v>34400</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,40 +491,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hannah Fink</t>
+          <t>Mark Scott</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pauline Wood</t>
+          <t>Woodrow Turcotte</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Stefanie Hatfield</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Earl Himes</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -662,12 +558,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mae Hambleton</t>
+          <t>Elliot Mcphatter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bruce Roy</t>
+          <t>Adam Smith</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -688,7 +584,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Robert Jarrell</t>
+          <t>Jose Harris</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -709,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,19 +646,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lisa Newell</t>
+          <t>Eric Storey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Erin Manning</t>
+          <t>Hubert Lack</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Paul Studer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Allan Lomanto</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Patricia Collette</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Robert Davison</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +760,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jill Dennehy</t>
+          <t>Janet Eddinger</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -843,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,19 +822,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mark Scott</t>
+          <t>Antonio Sargent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cynthia Franklin</t>
+          <t>Sarah Petrich</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Juan Skinner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Timothy Davis</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -951,12 +910,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antonio Sargent</t>
+          <t>Irene Gallegos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Steven Kling</t>
+          <t>Breanna Cunningham</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -972,19 +931,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juan Skinner</t>
+          <t>Lisa Newell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Timothy Davis</t>
+          <t>Larry Burton</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>5000</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1039,12 +998,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eric Storey</t>
+          <t>Hannah Fink</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Florence Vanduser</t>
+          <t>Karen Head</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1065,7 +1024,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Allan Lomanto</t>
+          <t>Earl Himes</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1086,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,19 +1086,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Irene Gallegos</t>
+          <t>Mary Kissler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arturo Pritt</t>
+          <t>Robert Jarrell</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1148,40 +1104,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul Studer</t>
+          <t>Mae Hambleton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Larry Burton</t>
+          <t>Sarah Tamura</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>5000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Patricia Collette</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Robert Davison</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
